--- a/testresults/OpenERP_TCs for automation training course_IMSM.xlsx
+++ b/testresults/OpenERP_TCs for automation training course_IMSM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13545" windowHeight="8220" tabRatio="911" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13455" windowHeight="5940" tabRatio="911" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1087">
   <si>
     <t>Status Definition</t>
   </si>
@@ -9035,68 +9035,9 @@
     <t xml:space="preserve"> - Click ISMS Helpdesk</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The ledt navigation bar includes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- ISMS Requests
- +ISMS Issues
- +Compose ISMS Request
-- Issue Management
- +Assets
- +Asset Categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>-Access to OpenERP
 -User has LDAP account
 -User is not admin or ISMS Managers</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The ledt navigation bar includes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- ISMS Requests
- +ISMS Issues
- +Compose ISMS Request</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>Verify that the form "Compose ISMS Request" is opened correctly</t>
@@ -10993,7 +10934,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -11253,7 +11193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11279,15 +11219,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -11479,22 +11416,19 @@
       <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -11759,6 +11693,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11843,8 +11779,6 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12147,91 +12081,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.25" collapsed="true"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
-        <v>986</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="92" t="s">
+        <v>984</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A6" s="91" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="A6" s="93" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="87" t="s">
+        <v>985</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>986</v>
+      </c>
+      <c r="C14" s="88" t="s">
         <v>987</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>988</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>989</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>161</v>
       </c>
       <c r="E14" s="89" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
@@ -12239,16 +12173,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C15" s="87">
         <v>32</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -12256,16 +12190,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C16" s="87">
         <v>32</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
@@ -12273,16 +12207,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C17" s="87">
         <v>37</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
@@ -12290,16 +12224,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C18" s="87">
         <v>45</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
@@ -12307,16 +12241,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C19" s="87">
         <v>33</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -12324,16 +12258,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="87">
         <v>43</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
@@ -12341,16 +12275,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="87">
         <v>8</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -12374,35 +12308,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="42" customHeight="1" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="96"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="97"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -12416,10 +12350,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="98"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -12457,49 +12391,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="106" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="60" customHeight="1" outlineLevel="2">
@@ -13310,31 +13244,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -13348,8 +13282,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -13387,54 +13321,54 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="106" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="57" outlineLevel="2">
       <c r="A12" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
@@ -13456,7 +13390,7 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="63" outlineLevel="2">
       <c r="A13" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>164</v>
@@ -13480,7 +13414,7 @@
     </row>
     <row r="14" spans="1:8" ht="99" outlineLevel="2">
       <c r="A14" s="14" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>172</v>
@@ -13504,7 +13438,7 @@
     </row>
     <row r="15" spans="1:8" ht="90">
       <c r="A15" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>172</v>
@@ -13528,7 +13462,7 @@
     </row>
     <row r="16" spans="1:8" ht="105">
       <c r="A16" s="14" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>172</v>
@@ -13552,7 +13486,7 @@
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>172</v>
@@ -13576,7 +13510,7 @@
     </row>
     <row r="18" spans="1:8" ht="339">
       <c r="A18" s="14" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>187</v>
@@ -13600,7 +13534,7 @@
     </row>
     <row r="19" spans="1:8" ht="288">
       <c r="A19" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>187</v>
@@ -13624,7 +13558,7 @@
     </row>
     <row r="20" spans="1:8" ht="90">
       <c r="A20" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>172</v>
@@ -13648,7 +13582,7 @@
     </row>
     <row r="21" spans="1:8" ht="150">
       <c r="A21" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>172</v>
@@ -13672,7 +13606,7 @@
     </row>
     <row r="22" spans="1:8" ht="150">
       <c r="A22" s="14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>172</v>
@@ -13696,7 +13630,7 @@
     </row>
     <row r="23" spans="1:8" ht="153">
       <c r="A23" s="14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>203</v>
@@ -13720,7 +13654,7 @@
     </row>
     <row r="24" spans="1:8" ht="150">
       <c r="A24" s="14" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>203</v>
@@ -13744,7 +13678,7 @@
     </row>
     <row r="25" spans="1:8" ht="52.5">
       <c r="A25" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>164</v>
@@ -13768,7 +13702,7 @@
     </row>
     <row r="26" spans="1:8" ht="120">
       <c r="A26" s="14" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>214</v>
@@ -13792,7 +13726,7 @@
     </row>
     <row r="27" spans="1:8" ht="105">
       <c r="A27" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>219</v>
@@ -13816,7 +13750,7 @@
     </row>
     <row r="28" spans="1:8" ht="150">
       <c r="A28" s="14" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>203</v>
@@ -13840,7 +13774,7 @@
     </row>
     <row r="29" spans="1:8" ht="67.5">
       <c r="A29" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>164</v>
@@ -13864,7 +13798,7 @@
     </row>
     <row r="30" spans="1:8" ht="156">
       <c r="A30" s="14" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>229</v>
@@ -13888,7 +13822,7 @@
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>234</v>
@@ -13912,7 +13846,7 @@
     </row>
     <row r="32" spans="1:8" ht="75">
       <c r="A32" s="14" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>234</v>
@@ -13936,7 +13870,7 @@
     </row>
     <row r="33" spans="1:8" ht="153">
       <c r="A33" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>234</v>
@@ -13960,7 +13894,7 @@
     </row>
     <row r="34" spans="1:8" ht="165">
       <c r="A34" s="14" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>203</v>
@@ -13984,7 +13918,7 @@
     </row>
     <row r="35" spans="1:8" ht="60">
       <c r="A35" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>164</v>
@@ -14008,7 +13942,7 @@
     </row>
     <row r="36" spans="1:8" ht="159">
       <c r="A36" s="14" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>254</v>
@@ -14032,7 +13966,7 @@
     </row>
     <row r="37" spans="1:8" ht="198">
       <c r="A37" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>254</v>
@@ -14056,7 +13990,7 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>262</v>
@@ -14080,7 +14014,7 @@
     </row>
     <row r="39" spans="1:8" ht="90">
       <c r="A39" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>262</v>
@@ -14104,7 +14038,7 @@
     </row>
     <row r="40" spans="1:8" ht="150">
       <c r="A40" s="14" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>203</v>
@@ -14128,7 +14062,7 @@
     </row>
     <row r="41" spans="1:8" ht="52.5">
       <c r="A41" s="14" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>164</v>
@@ -14152,7 +14086,7 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>214</v>
@@ -14176,7 +14110,7 @@
     </row>
     <row r="43" spans="1:8" ht="60">
       <c r="A43" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>214</v>
@@ -14200,7 +14134,7 @@
     </row>
     <row r="44" spans="1:8" ht="135">
       <c r="A44" s="14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>203</v>
@@ -14224,7 +14158,7 @@
     </row>
     <row r="45" spans="1:8" ht="45">
       <c r="A45" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>164</v>
@@ -14247,7 +14181,7 @@
     </row>
     <row r="46" spans="1:8" ht="240">
       <c r="A46" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>287</v>
@@ -14270,7 +14204,7 @@
     </row>
     <row r="47" spans="1:8" ht="189">
       <c r="A47" s="14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>292</v>
@@ -14291,7 +14225,7 @@
     </row>
     <row r="48" spans="1:8" ht="120">
       <c r="A48" s="14" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>203</v>
@@ -14345,30 +14279,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -14382,8 +14316,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -14421,49 +14355,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="106" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="102">
@@ -15264,30 +15198,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -15301,8 +15235,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -15340,49 +15274,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="106" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="108"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="217.5">
@@ -15402,7 +15336,7 @@
         <v>444</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="18"/>
@@ -15634,30 +15568,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="56" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="56" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -15671,8 +15605,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -15710,49 +15644,49 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="113" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="72"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="117" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="119.25">
@@ -16529,30 +16463,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="59" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="59" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -16566,8 +16500,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -16605,49 +16539,49 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="113" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="73"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="117" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="75" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="77"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="77"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
@@ -17750,35 +17684,35 @@
   <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="56" width="32.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.25" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.125" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.75" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.625" style="56" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.75" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.75" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.25" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.125" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -17792,8 +17726,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -17831,54 +17765,54 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="113" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="72"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="117" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
       <c r="A12" s="14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
@@ -17898,9 +17832,9 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="78" customFormat="1" ht="105">
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="45">
       <c r="A13" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>825</v>
@@ -17914,17 +17848,17 @@
       <c r="E13" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="F13" s="119" t="s">
-        <v>1088</v>
+      <c r="F13" s="90" t="s">
+        <v>1086</v>
       </c>
       <c r="G13" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" ht="69">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" s="14" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>825</v>
@@ -17933,13 +17867,13 @@
         <v>826</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="F14" s="118" t="s">
-        <v>1088</v>
+      <c r="F14" s="91" t="s">
+        <v>1086</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>177</v>
@@ -17948,22 +17882,22 @@
     </row>
     <row r="15" spans="1:8" ht="135">
       <c r="A15" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>825</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="F15" s="16" t="s">
         <v>833</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>834</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>835</v>
       </c>
       <c r="G15" s="80" t="s">
         <v>177</v>
@@ -17972,22 +17906,22 @@
     </row>
     <row r="16" spans="1:8" ht="249">
       <c r="A16" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>825</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>836</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>833</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>837</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>838</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>18</v>
@@ -17996,22 +17930,22 @@
     </row>
     <row r="17" spans="1:8" ht="207">
       <c r="A17" s="14" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>825</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>838</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>839</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>833</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>840</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>841</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>177</v>
@@ -18020,22 +17954,22 @@
     </row>
     <row r="18" spans="1:8" ht="117">
       <c r="A18" s="14" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>842</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="E18" s="37" t="s">
         <v>843</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="F18" s="16" t="s">
         <v>844</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>845</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>846</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>18</v>
@@ -18044,22 +17978,22 @@
     </row>
     <row r="19" spans="1:8" ht="75">
       <c r="A19" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>848</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>844</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>849</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>850</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>18</v>
@@ -18068,22 +18002,22 @@
     </row>
     <row r="20" spans="1:8" ht="183">
       <c r="A20" s="14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="E20" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="F20" s="16" t="s">
         <v>853</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>854</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>855</v>
       </c>
       <c r="G20" s="80" t="s">
         <v>18</v>
@@ -18092,22 +18026,22 @@
     </row>
     <row r="21" spans="1:8" ht="171">
       <c r="A21" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>855</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="F21" s="16" t="s">
         <v>857</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>858</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>859</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>18</v>
@@ -18116,22 +18050,22 @@
     </row>
     <row r="22" spans="1:8" ht="120">
       <c r="A22" s="14" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>860</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>861</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>862</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>863</v>
       </c>
       <c r="G22" s="80" t="s">
         <v>18</v>
@@ -18140,22 +18074,22 @@
     </row>
     <row r="23" spans="1:8" ht="69">
       <c r="A23" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="E23" s="37" t="s">
+        <v>863</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>864</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>865</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>866</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>18</v>
@@ -18164,22 +18098,22 @@
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="14" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="E24" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>867</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>868</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>869</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>18</v>
@@ -18187,22 +18121,22 @@
     </row>
     <row r="25" spans="1:8" ht="105">
       <c r="A25" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="E25" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>870</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>871</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>872</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>18</v>
@@ -18210,22 +18144,22 @@
     </row>
     <row r="26" spans="1:8" ht="105">
       <c r="A26" s="14" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="E26" s="37" t="s">
+        <v>872</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>873</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>874</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>875</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>18</v>
@@ -18233,22 +18167,22 @@
     </row>
     <row r="27" spans="1:8" ht="60">
       <c r="A27" s="14" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="E27" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="F27" s="16" t="s">
         <v>878</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>879</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>880</v>
       </c>
       <c r="G27" s="80" t="s">
         <v>18</v>
@@ -18256,22 +18190,22 @@
     </row>
     <row r="28" spans="1:8" ht="66">
       <c r="A28" s="14" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B28" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="E28" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>881</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>878</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>882</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>883</v>
       </c>
       <c r="G28" s="80" t="s">
         <v>18</v>
@@ -18279,22 +18213,22 @@
     </row>
     <row r="29" spans="1:8" ht="60">
       <c r="A29" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="E29" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>884</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>878</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>885</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>886</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>18</v>
@@ -18302,43 +18236,43 @@
     </row>
     <row r="30" spans="1:8" ht="90">
       <c r="A30" s="14" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="E30" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>887</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>878</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>888</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>889</v>
       </c>
       <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>888</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="F31" s="33" t="s">
         <v>891</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>892</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>893</v>
       </c>
       <c r="G31" s="83" t="s">
         <v>18</v>
@@ -18346,64 +18280,64 @@
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="14" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C32" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="F32" s="33" t="s">
         <v>895</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>896</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>897</v>
       </c>
       <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" ht="171">
       <c r="A33" s="14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C33" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>898</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>899</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>900</v>
       </c>
       <c r="G33" s="83"/>
     </row>
     <row r="34" spans="1:7" ht="231">
       <c r="A34" s="14" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>900</v>
+      </c>
+      <c r="D34" s="37" t="s">
         <v>901</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="E34" s="37" t="s">
         <v>902</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="F34" s="16" t="s">
         <v>903</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>905</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>18</v>
@@ -18411,22 +18345,22 @@
     </row>
     <row r="35" spans="1:7" ht="225">
       <c r="A35" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B35" s="84" t="s">
+        <v>904</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>905</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>901</v>
+      </c>
+      <c r="E35" s="85" t="s">
         <v>906</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="F35" s="85" t="s">
         <v>907</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>903</v>
-      </c>
-      <c r="E35" s="85" t="s">
-        <v>908</v>
-      </c>
-      <c r="F35" s="85" t="s">
-        <v>909</v>
       </c>
       <c r="G35" s="86" t="s">
         <v>18</v>
@@ -18434,22 +18368,22 @@
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="A36" s="14" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C36" s="84" t="s">
+        <v>908</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>909</v>
+      </c>
+      <c r="E36" s="85" t="s">
         <v>910</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="F36" s="84" t="s">
         <v>911</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>912</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>913</v>
       </c>
       <c r="G36" s="86" t="s">
         <v>18</v>
@@ -18457,43 +18391,43 @@
     </row>
     <row r="37" spans="1:7" ht="60">
       <c r="A37" s="14" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D37" s="85" t="s">
+        <v>912</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>913</v>
+      </c>
+      <c r="F37" s="84" t="s">
         <v>914</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>915</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>916</v>
       </c>
       <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="120">
       <c r="A38" s="14" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>916</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>917</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="F38" s="16" t="s">
         <v>918</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>920</v>
       </c>
       <c r="G38" s="80" t="s">
         <v>18</v>
@@ -18501,22 +18435,22 @@
     </row>
     <row r="39" spans="1:7" ht="120">
       <c r="A39" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="D39" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="E39" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="F39" s="16" t="s">
         <v>923</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>924</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>925</v>
       </c>
       <c r="G39" s="80" t="s">
         <v>18</v>
@@ -18524,22 +18458,22 @@
     </row>
     <row r="40" spans="1:7" ht="195">
       <c r="A40" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="E40" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="F40" s="16" t="s">
         <v>928</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>929</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>930</v>
       </c>
       <c r="G40" s="80" t="s">
         <v>177</v>
@@ -18547,22 +18481,22 @@
     </row>
     <row r="41" spans="1:7" ht="225">
       <c r="A41" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="F41" s="37" t="s">
         <v>932</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>928</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>933</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>934</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>18</v>
@@ -18570,22 +18504,22 @@
     </row>
     <row r="42" spans="1:7" ht="120">
       <c r="A42" s="14" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="E42" s="37" t="s">
         <v>935</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="F42" s="16" t="s">
         <v>936</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>937</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>938</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>18</v>
@@ -18593,22 +18527,22 @@
     </row>
     <row r="43" spans="1:7" ht="150">
       <c r="A43" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B43" s="42" t="s">
+        <v>937</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>939</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="E43" s="43" t="s">
         <v>940</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="F43" s="42" t="s">
         <v>941</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>942</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>943</v>
       </c>
       <c r="G43" s="82" t="s">
         <v>18</v>
@@ -18616,43 +18550,43 @@
     </row>
     <row r="44" spans="1:7" ht="150">
       <c r="A44" s="14" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B44" s="42" t="s">
+        <v>937</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>942</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>939</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="E44" s="43" t="s">
+        <v>943</v>
+      </c>
+      <c r="F44" s="42" t="s">
         <v>944</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>941</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>945</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>946</v>
       </c>
       <c r="G44" s="82"/>
     </row>
     <row r="45" spans="1:7" ht="120">
       <c r="A45" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C45" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>946</v>
+      </c>
+      <c r="E45" s="43" t="s">
         <v>947</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="F45" s="43" t="s">
         <v>948</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>949</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>950</v>
       </c>
       <c r="G45" s="82" t="s">
         <v>18</v>
@@ -18660,22 +18594,22 @@
     </row>
     <row r="46" spans="1:7" ht="135">
       <c r="A46" s="14" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C46" s="42" t="s">
+        <v>949</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>951</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="F46" s="43" t="s">
         <v>952</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>953</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>954</v>
       </c>
       <c r="G46" s="82" t="s">
         <v>18</v>
@@ -18683,22 +18617,22 @@
     </row>
     <row r="47" spans="1:7" ht="150">
       <c r="A47" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C47" s="42" t="s">
+        <v>953</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>954</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="F47" s="43" t="s">
         <v>956</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>957</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>958</v>
       </c>
       <c r="G47" s="82" t="s">
         <v>18</v>
@@ -18706,22 +18640,22 @@
     </row>
     <row r="48" spans="1:7" ht="150">
       <c r="A48" s="14" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B48" s="42" t="s">
+        <v>957</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>958</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="E48" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="F48" s="42" t="s">
         <v>961</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>962</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>963</v>
       </c>
       <c r="G48" s="82" t="s">
         <v>18</v>
@@ -18729,22 +18663,22 @@
     </row>
     <row r="49" spans="1:7" ht="69">
       <c r="A49" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="D49" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="E49" s="37" t="s">
         <v>965</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="F49" s="16" t="s">
         <v>966</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>967</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>968</v>
       </c>
       <c r="G49" s="80" t="s">
         <v>177</v>
@@ -18752,22 +18686,22 @@
     </row>
     <row r="50" spans="1:7" ht="126">
       <c r="A50" s="14" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="D50" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="E50" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>969</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>970</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>971</v>
       </c>
       <c r="G50" s="80" t="s">
         <v>177</v>
@@ -18775,22 +18709,22 @@
     </row>
     <row r="51" spans="1:7" ht="126">
       <c r="A51" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>962</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>970</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="E51" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>972</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>973</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>974</v>
       </c>
       <c r="G51" s="80" t="s">
         <v>18</v>
@@ -18798,22 +18732,22 @@
     </row>
     <row r="52" spans="1:7" ht="138">
       <c r="A52" s="14" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B52" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>974</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E52" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="F52" s="37" t="s">
         <v>976</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>978</v>
       </c>
       <c r="G52" s="80" t="s">
         <v>177</v>
@@ -18821,22 +18755,22 @@
     </row>
     <row r="53" spans="1:7" ht="111">
       <c r="A53" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E53" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="F53" s="16" t="s">
         <v>980</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>981</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>982</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>177</v>
@@ -18844,22 +18778,22 @@
     </row>
     <row r="54" spans="1:7" ht="138">
       <c r="A54" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>983</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>984</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>985</v>
       </c>
       <c r="G54" s="80" t="s">
         <v>18</v>
